--- a/Document/CI/Account.xlsx
+++ b/Document/CI/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Column3</t>
   </si>
@@ -112,6 +112,25 @@
   </si>
   <si>
     <t>Not thing</t>
+  </si>
+  <si>
+    <t>hungngo@ciagency.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>hung-pc-ci-data-gateway</t>
+  </si>
+  <si>
+    <t>Onn-premises data gateway</t>
+  </si>
+  <si>
+    <t>Abc@@123HH</t>
+  </si>
+  <si>
+    <t>old: Bud21194
+new: Abc@@123H</t>
   </si>
 </sst>
 </file>
@@ -217,6 +236,114 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Arial"/>
@@ -244,19 +371,11 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -280,11 +399,19 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -300,114 +427,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -428,26 +447,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A3:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Description" dataDxfId="5"/>
-    <tableColumn id="2" name="Account" dataDxfId="4" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Password" dataDxfId="3"/>
-    <tableColumn id="4" name="Note or link" dataDxfId="2"/>
+    <tableColumn id="1" name="Description" dataDxfId="9"/>
+    <tableColumn id="2" name="Account" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Password" dataDxfId="7"/>
+    <tableColumn id="4" name="Note or link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:D15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:D15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Information" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Information" dataDxfId="2"/>
+    <tableColumn id="3" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -719,7 +738,7 @@
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -822,11 +841,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
+    <row r="11" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
@@ -851,7 +886,7 @@
   <dimension ref="A3:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>

--- a/Document/CI/Account.xlsx
+++ b/Document/CI/Account.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Column3</t>
   </si>
@@ -132,12 +132,18 @@
     <t>old: Bud21194
 new: Abc@@123H</t>
   </si>
+  <si>
+    <t>DigitalOcean: VPSNetCoreV2.2</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +186,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -219,6 +230,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:D26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Description" dataDxfId="9"/>
     <tableColumn id="2" name="Account" dataDxfId="8" dataCellStyle="Hyperlink"/>
@@ -735,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +862,7 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -863,20 +880,101 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document/CI/Account.xlsx
+++ b/Document/CI/Account.xlsx
@@ -755,7 +755,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -843,7 +843,7 @@
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -968,13 +968,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document/CI/Account.xlsx
+++ b/Document/CI/Account.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Column3</t>
   </si>
@@ -137,6 +137,38 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>old: Qux80908
+new: Abc@@123HH</t>
+  </si>
+  <si>
+    <t>Power Be Caready</t>
+  </si>
+  <si>
+    <t>Onn-premises data gateway Caready</t>
+  </si>
+  <si>
+    <t>Caready on-premises</t>
+  </si>
+  <si>
+    <t>Caready@@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ci_caready@ciagency.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>Analytics_Data</t>
+  </si>
+  <si>
+    <t>Domain / IP
+103.77.166.113
+Database
+Analytics_Data
+Username
+analytics_read_data_login
+Password
+Nextgroup@1230</t>
   </si>
 </sst>
 </file>
@@ -213,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -236,6 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,14 +787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.26953125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
@@ -891,13 +924,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+    <row r="14" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="35" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
@@ -980,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D4"/>
+  <dimension ref="A3:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1017,6 +1064,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
